--- a/excel/TC05_SelectStaffForRequest.xlsx
+++ b/excel/TC05_SelectStaffForRequest.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\IT496 Project IN Information Technology (AJ.SAYAN)\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\IT496 Project IN Information Technology (AJ.SAYAN)\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB74CD0-87BD-4E8E-BAAD-CC2BF5446E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA520BD3-395B-4763-8AFB-858662600DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{02CACE61-8A48-4707-AED0-8E7ADDC3B807}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="14604" windowHeight="6840" xr2:uid="{02CACE61-8A48-4707-AED0-8E7ADDC3B807}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="2" r:id="rId1"/>
-    <sheet name="TestStep" sheetId="1" r:id="rId2"/>
+    <sheet name="TestStep" sheetId="4" r:id="rId2"/>
     <sheet name="TestData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -22,17 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
   <si>
     <t>TC Desc</t>
   </si>
@@ -172,94 +167,127 @@
     <t>Click Main Menu Button</t>
   </si>
   <si>
-    <t>tapByCoordinates</t>
-  </si>
-  <si>
     <t>verticalSwipeByPercentages</t>
   </si>
   <si>
-    <t>Click Tap Coordinates</t>
-  </si>
-  <si>
     <t>Click vertical Swipe</t>
   </si>
   <si>
-    <t>0.8,0.2,0.5</t>
-  </si>
-  <si>
     <t>android:id/button1</t>
   </si>
   <si>
-    <t>android:id/button3</t>
-  </si>
-  <si>
-    <t>confirm</t>
+    <t>vSelectStaff</t>
+  </si>
+  <si>
+    <t>Close apk</t>
+  </si>
+  <si>
+    <t>บันทึกข้อมูลสำเร็จ</t>
+  </si>
+  <si>
+    <t>vConfirmProcess</t>
+  </si>
+  <si>
+    <t>TDID03</t>
+  </si>
+  <si>
+    <t>TDID04</t>
+  </si>
+  <si>
+    <t>stlpapp.finalproject.app.com.appstlp:id/text05</t>
+  </si>
+  <si>
+    <t>ConfirmProcess</t>
+  </si>
+  <si>
+    <t>vVerticalSwipe</t>
+  </si>
+  <si>
+    <t>VerticalSwipe</t>
+  </si>
+  <si>
+    <t>click_class</t>
+  </si>
+  <si>
+    <t>Select a problem</t>
+  </si>
+  <si>
+    <t>android.widget.Button</t>
+  </si>
+  <si>
+    <t>checkbox_class</t>
+  </si>
+  <si>
+    <t>Confirm Staff</t>
+  </si>
+  <si>
+    <t>ยกเลิก</t>
+  </si>
+  <si>
+    <t>ตกลง</t>
+  </si>
+  <si>
+    <t>check_submit</t>
   </si>
   <si>
     <t>tapByCoordinates_Confirm</t>
   </si>
   <si>
+    <t>vProblem</t>
+  </si>
+  <si>
+    <t>กดเพื่อดูรายละเอียด</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>vConfirmStaff</t>
+  </si>
+  <si>
+    <t>aik nik</t>
+  </si>
+  <si>
+    <t>Enter agree or not agree</t>
+  </si>
+  <si>
+    <t>ConfirmStaff</t>
+  </si>
+  <si>
+    <t>Dialog Agree</t>
+  </si>
+  <si>
     <t>Select Staff</t>
   </si>
   <si>
-    <t>525,788</t>
-  </si>
-  <si>
-    <t>vSelectStaff</t>
-  </si>
-  <si>
-    <t>selectStaff</t>
-  </si>
-  <si>
-    <t>Click Confirm staff Button</t>
-  </si>
-  <si>
-    <t>Click Success Button</t>
-  </si>
-  <si>
-    <t>Close apk</t>
-  </si>
-  <si>
-    <t>บันทึกข้อมูลสำเร็จ</t>
-  </si>
-  <si>
-    <t>เกิดข้อผิดพลาด</t>
-  </si>
-  <si>
-    <t>147,692</t>
-  </si>
-  <si>
-    <t>546,714</t>
-  </si>
-  <si>
-    <t>vConfirmProcess</t>
-  </si>
-  <si>
-    <t>TDID03</t>
-  </si>
-  <si>
-    <t>TDID04</t>
-  </si>
-  <si>
-    <t>537,1026</t>
-  </si>
-  <si>
-    <t>TC06</t>
-  </si>
-  <si>
-    <t>vConfirm</t>
-  </si>
-  <si>
-    <t>stlpapp.finalproject.app.com.appstlp:id/text05</t>
-  </si>
-  <si>
-    <t>Click Button Select staff</t>
-  </si>
-  <si>
-    <t>545,1626</t>
-  </si>
-  <si>
-    <t>ConfirmProcess</t>
+    <t>Dialog Success Request</t>
+  </si>
+  <si>
+    <t>Button Process Success</t>
+  </si>
+  <si>
+    <t>vBtnProcess</t>
+  </si>
+  <si>
+    <t>btnProcess</t>
+  </si>
+  <si>
+    <t>กระบวนการรับเรื่องเสร็จสิ้น</t>
+  </si>
+  <si>
+    <t>กรุณาเลือกเจ้าหน้าที่</t>
+  </si>
+  <si>
+    <t>กรุณากดยืนยันการเลือกเจ้าหน้าที่</t>
+  </si>
+  <si>
+    <t>0.8,0.2,0.7</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -397,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,9 +451,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -442,9 +467,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,6 +480,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -804,16 +835,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A77DDDA-BE83-412A-B10E-94898770866F}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="15.625" style="1"/>
-    <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="15.625" style="1"/>
+    <col min="1" max="2" width="15.59765625" style="1"/>
+    <col min="3" max="3" width="23.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="15.59765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
@@ -850,7 +881,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>16</v>
@@ -863,58 +894,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FD072-C603-4B26-9BE8-601BD800D157}">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E647ACCA-D6DA-4B6C-9AD8-B87F24D6DEDC}">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="30.69921875" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="15.75" style="1"/>
+    <col min="1" max="1" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" customWidth="1"/>
+    <col min="4" max="4" width="25.796875" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="41.59765625" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" customWidth="1"/>
+    <col min="9" max="9" width="13.296875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" ht="24" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="27" customHeight="1">
+    <row r="2" spans="1:10" ht="24" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -924,7 +957,7 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -938,7 +971,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="27" customHeight="1">
+    <row r="3" spans="1:10" ht="24" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -948,13 +981,13 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="2"/>
@@ -962,7 +995,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="27" customHeight="1">
+    <row r="4" spans="1:10" ht="24" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -972,13 +1005,13 @@
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -988,7 +1021,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="27" customHeight="1">
+    <row r="5" spans="1:10" ht="24" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -998,13 +1031,13 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1014,7 +1047,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1">
+    <row r="6" spans="1:10" ht="24" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -1024,13 +1057,13 @@
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="2"/>
@@ -1038,7 +1071,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="27" customHeight="1">
+    <row r="7" spans="1:10" ht="24" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1048,21 +1081,21 @@
       <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>72</v>
+      <c r="F7" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1">
+    <row r="8" spans="1:10" ht="24" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1072,21 +1105,21 @@
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
+      <c r="D8" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="27" customHeight="1">
+    <row r="9" spans="1:10" ht="24" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1096,21 +1129,21 @@
       <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>49</v>
+      <c r="D9" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="27" customHeight="1">
+    <row r="10" spans="1:10" ht="24" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1120,47 +1153,45 @@
       <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>49</v>
+      <c r="D10" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1">
+    <row r="11" spans="1:10" ht="24" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1">
+    <row r="12" spans="1:10" ht="24" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -1168,25 +1199,23 @@
         <v>38</v>
       </c>
       <c r="C12" s="2">
-        <v>12</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1">
+    <row r="13" spans="1:10" ht="24" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1194,23 +1223,23 @@
         <v>38</v>
       </c>
       <c r="C13" s="2">
-        <v>13</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>56</v>
+        <v>12</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1">
+    <row r="14" spans="1:10" ht="24" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -1218,25 +1247,23 @@
         <v>38</v>
       </c>
       <c r="C14" s="2">
-        <v>14</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="27" customHeight="1">
+    <row r="15" spans="1:10" ht="24" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1244,87 +1271,171 @@
         <v>38</v>
       </c>
       <c r="C15" s="2">
-        <v>15</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
+    <row r="16" spans="1:10" ht="24" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="24" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="24" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D88CB84-7895-4465-A78B-6A22CB5104B1}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="24.6"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="68.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.75" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="1"/>
-    <col min="11" max="11" width="23.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="15.625" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.09765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="15.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15" ht="21" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21.6" customHeight="1">
+    <row r="2" spans="1:15" ht="21.6" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
@@ -1341,22 +1452,31 @@
         <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="21.6" customHeight="1">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="21.6" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>43</v>
       </c>
@@ -1372,21 +1492,34 @@
       <c r="E3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="21.6" customHeight="1">
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="21.6" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1401,22 +1534,31 @@
         <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="21.6" customHeight="1">
+        <v>69</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="21.6" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -1431,20 +1573,23 @@
         <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
